--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-ilsan-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EB3224-0244-46CF-9350-B6C652164FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CDE101-40D1-4C98-AD14-B1FDC4F79317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="705" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="255" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/board/welcome/write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가입인사 게시글 작성 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,18 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가입인사 게시글 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/board/welcome/{Board.bno}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가입인사 게시글 단일 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +176,30 @@
   </si>
   <si>
     <t>글 작성자가 맞는지 확인 후, 게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/welcome/{bno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/welcome/article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/welcome/article/{bno}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입인사 게시글 수정 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인상태를 확인하고 가입인사 게시글 수정 페이지로 이동합니다. 글 작성자가 아니라면 루트페이지로 이동합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,52 +370,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -687,7 +702,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,249 +717,257 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
+      <c r="F17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\project-ilsan-community\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CDE101-40D1-4C98-AD14-B1FDC4F79317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CAE41D-CD7F-45A4-AC9E-7FB8C338FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="255" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="1710" windowWidth="30825" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -266,17 +266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -310,17 +299,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -370,54 +348,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +674,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,7 +695,7 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -737,21 +709,21 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -763,12 +735,12 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -778,12 +750,12 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -793,12 +765,12 @@
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -808,12 +780,12 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
@@ -823,33 +795,33 @@
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -861,27 +833,27 @@
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
@@ -891,12 +863,12 @@
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
@@ -906,27 +878,27 @@
       <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
@@ -936,12 +908,12 @@
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
@@ -951,23 +923,23 @@
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
